--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF68E47-6273-D842-B45F-BE2C66AF605A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCEF9A8-787D-C04D-8373-4E10397B1378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="5520" windowWidth="14800" windowHeight="8020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,7 +104,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{data:1}</t>
+    <t>register02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +173,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -190,10 +222,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,9 +240,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,105 +597,134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="57.5" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="21.83203125" style="1"/>
-    <col min="9" max="9" width="45.1640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="21.83203125" style="1"/>
+    <col min="1" max="9" width="21.83203125" style="1"/>
+    <col min="10" max="10" width="32.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="45.1640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="21.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="46.75" customHeight="1">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="46.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="57.5" customHeight="1">
+    <row r="2" spans="1:11" ht="57.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57.5" customHeight="1">
+    <row r="3" spans="1:11" ht="57.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"GET,POST"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"url-encode,json,xml,form-data"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{C70A6B7E-58CD-1E41-A34D-D575AC3BFA00}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{56943201-C549-104A-952C-28A651D90179}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>